--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nlgn3-Nrxn1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Nlgn3-Nrxn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.083036</v>
+      </c>
+      <c r="H2">
+        <v>0.249108</v>
+      </c>
+      <c r="I2">
+        <v>0.1024543843803827</v>
+      </c>
+      <c r="J2">
+        <v>0.1024543843803827</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.007630333333333333</v>
-      </c>
-      <c r="H2">
-        <v>0.022891</v>
-      </c>
-      <c r="I2">
-        <v>0.004433708971583278</v>
-      </c>
-      <c r="J2">
-        <v>0.004433708971583277</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.006517333333333333</v>
+        <v>0.02430333333333333</v>
       </c>
       <c r="N2">
-        <v>0.019552</v>
+        <v>0.07291</v>
       </c>
       <c r="O2">
-        <v>0.1115771572706054</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1115771572706054</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>4.972942577777777E-05</v>
+        <v>0.002018051586666667</v>
       </c>
       <c r="R2">
-        <v>0.0004475648319999999</v>
+        <v>0.01816246428</v>
       </c>
       <c r="S2">
-        <v>0.0004947006432144416</v>
+        <v>0.1024543843803827</v>
       </c>
       <c r="T2">
-        <v>0.0004947006432144415</v>
+        <v>0.1024543843803827</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -599,57 +599,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.385603</v>
+      </c>
+      <c r="H3">
+        <v>1.156809</v>
+      </c>
+      <c r="I3">
+        <v>0.4757781923530602</v>
+      </c>
+      <c r="J3">
+        <v>0.4757781923530602</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G3">
-        <v>0.007630333333333333</v>
-      </c>
-      <c r="H3">
-        <v>0.022891</v>
-      </c>
-      <c r="I3">
-        <v>0.004433708971583278</v>
-      </c>
-      <c r="J3">
-        <v>0.004433708971583277</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
       <c r="M3">
-        <v>0.05189366666666667</v>
+        <v>0.02430333333333333</v>
       </c>
       <c r="N3">
-        <v>0.155681</v>
+        <v>0.07291</v>
       </c>
       <c r="O3">
-        <v>0.8884228427293945</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.8884228427293945</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0003959659745555556</v>
+        <v>0.009371438243333332</v>
       </c>
       <c r="R3">
-        <v>0.003563693771</v>
+        <v>0.08434294419</v>
       </c>
       <c r="S3">
-        <v>0.003939008328368836</v>
+        <v>0.4757781923530602</v>
       </c>
       <c r="T3">
-        <v>0.003939008328368836</v>
+        <v>0.4757781923530602</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.385603</v>
+        <v>0.05510133333333334</v>
       </c>
       <c r="H4">
-        <v>1.156809</v>
+        <v>0.165304</v>
       </c>
       <c r="I4">
-        <v>0.2240598681450474</v>
+        <v>0.06798705603840416</v>
       </c>
       <c r="J4">
-        <v>0.2240598681450474</v>
+        <v>0.06798705603840415</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.006517333333333333</v>
+        <v>0.02430333333333333</v>
       </c>
       <c r="N4">
-        <v>0.019552</v>
+        <v>0.07291</v>
       </c>
       <c r="O4">
-        <v>0.1115771572706054</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.1115771572706054</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.002513103285333333</v>
+        <v>0.001339146071111111</v>
       </c>
       <c r="R4">
-        <v>0.022617929568</v>
+        <v>0.01205231464</v>
       </c>
       <c r="S4">
-        <v>0.02499996314605107</v>
+        <v>0.06798705603840416</v>
       </c>
       <c r="T4">
-        <v>0.02499996314605106</v>
+        <v>0.06798705603840415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.385603</v>
+        <v>0.07842200000000001</v>
       </c>
       <c r="H5">
-        <v>1.156809</v>
+        <v>0.235266</v>
       </c>
       <c r="I5">
-        <v>0.2240598681450474</v>
+        <v>0.0967613773770217</v>
       </c>
       <c r="J5">
-        <v>0.2240598681450474</v>
+        <v>0.09676137737702167</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05189366666666667</v>
+        <v>0.02430333333333333</v>
       </c>
       <c r="N5">
-        <v>0.155681</v>
+        <v>0.07291</v>
       </c>
       <c r="O5">
-        <v>0.8884228427293945</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.8884228427293945</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.02001035354766667</v>
+        <v>0.001905916006666667</v>
       </c>
       <c r="R5">
-        <v>0.180093181929</v>
+        <v>0.01715324406</v>
       </c>
       <c r="S5">
-        <v>0.1990599049989963</v>
+        <v>0.0967613773770217</v>
       </c>
       <c r="T5">
-        <v>0.1990599049989963</v>
+        <v>0.09676137737702167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1742253333333333</v>
+        <v>0.09847099999999999</v>
       </c>
       <c r="H6">
-        <v>0.522676</v>
+        <v>0.295413</v>
       </c>
       <c r="I6">
-        <v>0.101235999756728</v>
+        <v>0.1214989364169838</v>
       </c>
       <c r="J6">
-        <v>0.101235999756728</v>
+        <v>0.1214989364169838</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.006517333333333333</v>
+        <v>0.02430333333333333</v>
       </c>
       <c r="N6">
-        <v>0.019552</v>
+        <v>0.07291</v>
       </c>
       <c r="O6">
-        <v>0.1115771572706054</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.1115771572706054</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.001135484572444444</v>
+        <v>0.002393173536666667</v>
       </c>
       <c r="R6">
-        <v>0.010219361152</v>
+        <v>0.02153856183</v>
       </c>
       <c r="S6">
-        <v>0.01129562506630342</v>
+        <v>0.1214989364169838</v>
       </c>
       <c r="T6">
-        <v>0.01129562506630341</v>
+        <v>0.1214989364169838</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,424 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1742253333333333</v>
+        <v>0.1098346666666667</v>
       </c>
       <c r="H7">
-        <v>0.522676</v>
+        <v>0.329504</v>
       </c>
       <c r="I7">
-        <v>0.101235999756728</v>
+        <v>0.1355200534341476</v>
       </c>
       <c r="J7">
-        <v>0.101235999756728</v>
+        <v>0.1355200534341475</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.05189366666666667</v>
+        <v>0.02430333333333333</v>
       </c>
       <c r="N7">
-        <v>0.155681</v>
+        <v>0.07291</v>
       </c>
       <c r="O7">
-        <v>0.8884228427293945</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0.8884228427293945</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.00904119137288889</v>
+        <v>0.002669348515555556</v>
       </c>
       <c r="R7">
-        <v>0.08137072235600001</v>
+        <v>0.02402413664</v>
       </c>
       <c r="S7">
-        <v>0.08994037469042462</v>
+        <v>0.1355200534341476</v>
       </c>
       <c r="T7">
-        <v>0.08994037469042461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.023520333333333</v>
-      </c>
-      <c r="H8">
-        <v>3.070561</v>
-      </c>
-      <c r="I8">
-        <v>0.5947304116680671</v>
-      </c>
-      <c r="J8">
-        <v>0.5947304116680669</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.006517333333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.019552</v>
-      </c>
-      <c r="O8">
-        <v>0.1115771572706054</v>
-      </c>
-      <c r="P8">
-        <v>0.1115771572706054</v>
-      </c>
-      <c r="Q8">
-        <v>0.006670623185777778</v>
-      </c>
-      <c r="R8">
-        <v>0.060035608672</v>
-      </c>
-      <c r="S8">
-        <v>0.06635832867629982</v>
-      </c>
-      <c r="T8">
-        <v>0.0663583286762998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.023520333333333</v>
-      </c>
-      <c r="H9">
-        <v>3.070561</v>
-      </c>
-      <c r="I9">
-        <v>0.5947304116680671</v>
-      </c>
-      <c r="J9">
-        <v>0.5947304116680669</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.05189366666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.155681</v>
-      </c>
-      <c r="O9">
-        <v>0.8884228427293945</v>
-      </c>
-      <c r="P9">
-        <v>0.8884228427293945</v>
-      </c>
-      <c r="Q9">
-        <v>0.05311422300455556</v>
-      </c>
-      <c r="R9">
-        <v>0.4780280070410001</v>
-      </c>
-      <c r="S9">
-        <v>0.5283720829917672</v>
-      </c>
-      <c r="T9">
-        <v>0.5283720829917671</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.09389933333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.281698</v>
-      </c>
-      <c r="I10">
-        <v>0.05456148485767622</v>
-      </c>
-      <c r="J10">
-        <v>0.05456148485767621</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.006517333333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.019552</v>
-      </c>
-      <c r="O10">
-        <v>0.1115771572706054</v>
-      </c>
-      <c r="P10">
-        <v>0.1115771572706054</v>
-      </c>
-      <c r="Q10">
-        <v>0.0006119732551111111</v>
-      </c>
-      <c r="R10">
-        <v>0.005507759296</v>
-      </c>
-      <c r="S10">
-        <v>0.006087815376882695</v>
-      </c>
-      <c r="T10">
-        <v>0.006087815376882694</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.09389933333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.281698</v>
-      </c>
-      <c r="I11">
-        <v>0.05456148485767622</v>
-      </c>
-      <c r="J11">
-        <v>0.05456148485767621</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.05189366666666667</v>
-      </c>
-      <c r="N11">
-        <v>0.155681</v>
-      </c>
-      <c r="O11">
-        <v>0.8884228427293945</v>
-      </c>
-      <c r="P11">
-        <v>0.8884228427293945</v>
-      </c>
-      <c r="Q11">
-        <v>0.004872780704222222</v>
-      </c>
-      <c r="R11">
-        <v>0.043855026338</v>
-      </c>
-      <c r="S11">
-        <v>0.04847366948079352</v>
-      </c>
-      <c r="T11">
-        <v>0.04847366948079351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.03610366666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.108311</v>
-      </c>
-      <c r="I12">
-        <v>0.02097852660089801</v>
-      </c>
-      <c r="J12">
-        <v>0.02097852660089801</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.006517333333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.019552</v>
-      </c>
-      <c r="O12">
-        <v>0.1115771572706054</v>
-      </c>
-      <c r="P12">
-        <v>0.1115771572706054</v>
-      </c>
-      <c r="Q12">
-        <v>0.0002352996302222222</v>
-      </c>
-      <c r="R12">
-        <v>0.002117696672</v>
-      </c>
-      <c r="S12">
-        <v>0.002340724361853977</v>
-      </c>
-      <c r="T12">
-        <v>0.002340724361853976</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.03610366666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.108311</v>
-      </c>
-      <c r="I13">
-        <v>0.02097852660089801</v>
-      </c>
-      <c r="J13">
-        <v>0.02097852660089801</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.05189366666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.155681</v>
-      </c>
-      <c r="O13">
-        <v>0.8884228427293945</v>
-      </c>
-      <c r="P13">
-        <v>0.8884228427293945</v>
-      </c>
-      <c r="Q13">
-        <v>0.001873551643444445</v>
-      </c>
-      <c r="R13">
-        <v>0.016861964791</v>
-      </c>
-      <c r="S13">
-        <v>0.01863780223904404</v>
-      </c>
-      <c r="T13">
-        <v>0.01863780223904403</v>
+        <v>0.1355200534341475</v>
       </c>
     </row>
   </sheetData>
